--- a/icetext_entregable/visualizaciones_html.xlsx
+++ b/icetext_entregable/visualizaciones_html.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\data\icetext_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538AA2C8-04EA-48E0-860D-77AADCECEEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7585B0-34F1-41D3-9D49-4BD2B05B7BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{97BF9498-9A8D-4A8C-BFD5-C12894349A2F}"/>
   </bookViews>
@@ -33,12 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>visualizacion 3d nube palabras</t>
   </si>
   <si>
     <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/fe3223eacddb30af68bc96080dbddc77/raw/615cbf853a6f72a315f52be5690f910e1ef70c7e/data_ice</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/vis_AFILIACIONES.html</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635243C-5E85-4D3B-A220-2FC4AF34E54B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -421,9 +427,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{7FE81CBF-4529-41FA-BAD7-0B8934C16113}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9132FD40-C8E7-47FE-9EDB-F90832453493}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/icetext_entregable/visualizaciones_html.xlsx
+++ b/icetext_entregable/visualizaciones_html.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\data\icetext_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7585B0-34F1-41D3-9D49-4BD2B05B7BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F18B9-6C95-4165-B6D3-F43F6A7E05A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{97BF9498-9A8D-4A8C-BFD5-C12894349A2F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>visualizacion 3d nube palabras</t>
   </si>
@@ -45,6 +45,36 @@
   </si>
   <si>
     <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/vis_AFILIACIONES.html</t>
+  </si>
+  <si>
+    <t>distribucion emociones</t>
+  </si>
+  <si>
+    <t>palabras clave</t>
+  </si>
+  <si>
+    <t>ngramas</t>
+  </si>
+  <si>
+    <t>experiencia general</t>
+  </si>
+  <si>
+    <t>mapa emociones</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/Distribuci%C3%B3n%20Emociones_emotion.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/Experiencia%20general%20del%20cliente%20en%20la%20campa%C3%B1a_%20Personal_polaridad.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/USUARIO%20ICETEX%20(N-GRAMAS)_.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/USUARIO%20ICETEX_.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/data/master/icetext_entregable/personal_polar_usuario_.html</t>
   </si>
 </sst>
 </file>
@@ -407,19 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635243C-5E85-4D3B-A220-2FC4AF34E54B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="90.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,18 +458,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{7FE81CBF-4529-41FA-BAD7-0B8934C16113}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{9132FD40-C8E7-47FE-9EDB-F90832453493}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{426785B0-2B9C-4603-9279-A91087490557}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{DBB0F84B-0F11-4781-B710-A32D9AA1A7ED}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{735E1DD2-82F4-409F-9B45-02EA8527DA93}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{2E08D83A-32ED-4D50-9974-4B417005BE7C}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{10C1C0D7-51D2-4C43-95CF-ABBF3C985EF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
